--- a/Templates/96_to_384_Integra.xlsx
+++ b/Templates/96_to_384_Integra.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbisanz/bisanzlab/OHMC_Core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbisanz/bisanzlab/github/OHMC_Colaboratory/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5B9122-C59E-3C4C-8056-B4C3C7E3837B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074DF32E-430E-B448-8E84-1D608A9A9219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1267,6 +1278,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1321,13 +1333,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,35 +1346,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1390,21 +1371,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1746,7 +1713,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1903,7 +1870,7 @@
       <c r="X2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1980,7 +1947,7 @@
       <c r="X3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>315</v>
       </c>
     </row>
@@ -1988,76 +1955,76 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="3" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2065,76 +2032,76 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="3" t="s">
         <v>327</v>
       </c>
     </row>
@@ -2142,76 +2109,76 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2219,76 +2186,76 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="3" t="s">
         <v>339</v>
       </c>
     </row>
@@ -2296,76 +2263,76 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2373,76 +2340,76 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Y9" s="3" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2450,76 +2417,76 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="V10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="W10" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="X10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Y10" s="3" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2527,76 +2494,76 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="V11" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="W11" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="X11" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Y11" s="3" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2604,76 +2571,76 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="V12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="W12" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="X12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="Y12" s="3" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2681,76 +2648,76 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="U13" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="V13" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="W13" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="X13" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="Y13" s="3" t="s">
         <v>375</v>
       </c>
     </row>
@@ -2758,76 +2725,76 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Y14" s="3" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2835,76 +2802,76 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="U15" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V15" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="W15" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Y15" s="3" t="s">
         <v>387</v>
       </c>
     </row>
@@ -2912,76 +2879,76 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="U16" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="W16" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="X16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="Y16" s="3" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2989,93 +2956,93 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="U17" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="V17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="X17" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="Y17" s="3" t="s">
         <v>399</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:Y17">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",B2)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",B2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.59" right="0.59" top="0.82341269841269837" bottom="0.59" header="0.23622047244094491" footer="0"/>
